--- a/GBDS AUGUST FILES 2025/PURCHASES.xlsx
+++ b/GBDS AUGUST FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D796C9-247E-4331-AF6C-B6671FC4F023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565D876-920E-4CBB-8B0C-AB62D88A499A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="19">
-        <v>45850</v>
+        <v>45882</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>68</v>
@@ -2359,22 +2359,27 @@
       <c r="F7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="20">
+        <v>517807677</v>
+      </c>
       <c r="H7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="21">
+        <f>1286775-55029.33</f>
+        <v>1231745.67</v>
+      </c>
       <c r="K7" s="21">
         <f>M7*12</f>
-        <v>0</v>
+        <v>131972.75035714285</v>
       </c>
       <c r="L7" s="27">
         <f>I7-K7</f>
-        <v>0</v>
+        <v>1099772.919642857</v>
       </c>
       <c r="M7" s="33">
         <f>I7/112</f>
-        <v>0</v>
+        <v>10997.729196428571</v>
       </c>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
@@ -2388,9 +2393,7 @@
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="19">
-        <v>45853</v>
-      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="20" t="s">
         <v>68</v>
       </c>
@@ -2425,9 +2428,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C9" s="19">
-        <v>45854</v>
-      </c>
+      <c r="C9" s="19"/>
       <c r="D9" s="20" t="s">
         <v>68</v>
       </c>
@@ -3111,19 +3112,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>0</v>
+        <v>1231745.67</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>0</v>
+        <v>131972.75035714285</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>0</v>
+        <v>1099772.919642857</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>0</v>
+        <v>10997.729196428571</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS AUGUST FILES 2025/PURCHASES.xlsx
+++ b/GBDS AUGUST FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565D876-920E-4CBB-8B0C-AB62D88A499A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92697640-FA01-46CB-A6A5-B71476F09258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2393,9 @@
         <f>B7+1</f>
         <v>2</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="19">
+        <v>45885</v>
+      </c>
       <c r="D8" s="20" t="s">
         <v>68</v>
       </c>
@@ -2401,22 +2403,27 @@
       <c r="F8" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20">
+        <v>517818948</v>
+      </c>
       <c r="H8" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="21">
+        <f>1366324-57713.04</f>
+        <v>1308610.96</v>
+      </c>
       <c r="K8" s="21">
         <f>M8*12</f>
-        <v>0</v>
+        <v>140208.31714285712</v>
       </c>
       <c r="L8" s="27">
         <f>I8-K8</f>
-        <v>0</v>
+        <v>1168402.6428571427</v>
       </c>
       <c r="M8" s="33">
         <f t="shared" ref="M8:M26" si="0">I8/112</f>
-        <v>0</v>
+        <v>11684.026428571427</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -2428,7 +2435,9 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="19">
+        <v>45885</v>
+      </c>
       <c r="D9" s="20" t="s">
         <v>68</v>
       </c>
@@ -2436,22 +2445,27 @@
       <c r="F9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20">
+        <v>517819044</v>
+      </c>
       <c r="H9" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K9" s="21">
         <f t="shared" ref="K9:K26" si="2">M9*12</f>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L9" s="27">
         <f t="shared" ref="L9:L26" si="3">I9-K9</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M9" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -2463,7 +2477,9 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C10" s="19"/>
+      <c r="C10" s="19">
+        <v>45887</v>
+      </c>
       <c r="D10" s="20" t="s">
         <v>68</v>
       </c>
@@ -2471,22 +2487,27 @@
       <c r="F10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="20">
+        <v>517821628</v>
+      </c>
       <c r="H10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K10" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M10" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3112,19 +3133,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>1231745.67</v>
+        <v>5134110.55</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>131972.75035714285</v>
+        <v>550083.27321428573</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>1099772.919642857</v>
+        <v>4584027.2767857146</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>10997.729196428571</v>
+        <v>45840.272767857139</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS AUGUST FILES 2025/PURCHASES.xlsx
+++ b/GBDS AUGUST FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92697640-FA01-46CB-A6A5-B71476F09258}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D46897-E6DD-40FF-97DA-EDC2745AF861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,7 +2519,9 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="19">
+        <v>45889</v>
+      </c>
       <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
@@ -2527,22 +2529,27 @@
       <c r="F11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20">
+        <v>517829911</v>
+      </c>
       <c r="H11" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K11" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L11" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M11" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3133,19 +3140,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>5134110.55</v>
+        <v>6430987.5099999998</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>550083.27321428573</v>
+        <v>689034.37607142865</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>4584027.2767857146</v>
+        <v>5741953.1339285718</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>45840.272767857139</v>
+        <v>57419.531339285706</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS AUGUST FILES 2025/PURCHASES.xlsx
+++ b/GBDS AUGUST FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D46897-E6DD-40FF-97DA-EDC2745AF861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE69DF8-1821-4DD5-87CA-D32F3CE2C5E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2561,9 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="19">
+        <v>45892</v>
+      </c>
       <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
@@ -2569,22 +2571,27 @@
       <c r="F12" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20">
+        <v>517841696</v>
+      </c>
       <c r="H12" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="21">
+        <f>1317420-54050.85</f>
+        <v>1263369.1499999999</v>
+      </c>
       <c r="K12" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135360.98035714286</v>
       </c>
       <c r="L12" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1128008.169642857</v>
       </c>
       <c r="M12" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11280.081696428571</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3140,19 +3147,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>6430987.5099999998</v>
+        <v>7694356.6600000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>689034.37607142865</v>
+        <v>824395.35642857151</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>5741953.1339285718</v>
+        <v>6869961.3035714291</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>57419.531339285706</v>
+        <v>68699.613035714283</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS AUGUST FILES 2025/PURCHASES.xlsx
+++ b/GBDS AUGUST FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE69DF8-1821-4DD5-87CA-D32F3CE2C5E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12F5A7-ABC2-4305-BE93-7DE4035A5B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,7 +2603,9 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="19">
+        <v>45895</v>
+      </c>
       <c r="D13" s="20" t="s">
         <v>68</v>
       </c>
@@ -2611,22 +2613,27 @@
       <c r="F13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>517848541</v>
+      </c>
       <c r="H13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K13" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L13" s="27">
         <f>I13-K13</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M13" s="33">
         <f>I13/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3147,19 +3154,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>7694356.6600000001</v>
+        <v>8991233.620000001</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>824395.35642857151</v>
+        <v>963346.45928571443</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>6869961.3035714291</v>
+        <v>8027887.1607142864</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>68699.613035714283</v>
+        <v>80278.87160714285</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS AUGUST FILES 2025/PURCHASES.xlsx
+++ b/GBDS AUGUST FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C12F5A7-ABC2-4305-BE93-7DE4035A5B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E080C8-DEC7-442C-98A6-865507B3C946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,7 +2645,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C14" s="19"/>
+      <c r="C14" s="19">
+        <v>45896</v>
+      </c>
       <c r="D14" s="20" t="s">
         <v>68</v>
       </c>
@@ -2653,22 +2655,27 @@
       <c r="F14" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>517852635</v>
+      </c>
       <c r="H14" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="38"/>
+      <c r="I14" s="38">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K14" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L14" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M14" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2680,7 +2687,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C15" s="19"/>
+      <c r="C15" s="19">
+        <v>45897</v>
+      </c>
       <c r="D15" s="20" t="s">
         <v>68</v>
       </c>
@@ -2688,22 +2697,27 @@
       <c r="F15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>517856802</v>
+      </c>
       <c r="H15" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="21"/>
+      <c r="I15" s="21">
+        <f>1353132-56255.04</f>
+        <v>1296876.96</v>
+      </c>
       <c r="K15" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>138951.10285714286</v>
       </c>
       <c r="L15" s="27">
         <f>I15-K15</f>
-        <v>0</v>
+        <v>1157925.857142857</v>
       </c>
       <c r="M15" s="33">
         <f>I15/112</f>
-        <v>0</v>
+        <v>11579.258571428571</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3154,19 +3168,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>8991233.620000001</v>
+        <v>11584987.540000003</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>963346.45928571443</v>
+        <v>1241248.6650000003</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>8027887.1607142864</v>
+        <v>10343738.875</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>80278.87160714285</v>
+        <v>103437.38874999998</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">

--- a/GBDS AUGUST FILES 2025/PURCHASES.xlsx
+++ b/GBDS AUGUST FILES 2025/PURCHASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS AUGUST FILES 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E080C8-DEC7-442C-98A6-865507B3C946}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12AEB1AB-8DA4-4766-87BA-6A62C8219F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,7 +2729,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19">
+        <v>45898</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>68</v>
       </c>
@@ -2737,22 +2739,27 @@
       <c r="F16" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>517860944</v>
+      </c>
       <c r="H16" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="21">
+        <f>1303152-54637.44</f>
+        <v>1248514.5600000001</v>
+      </c>
       <c r="K16" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>133769.41714285716</v>
       </c>
       <c r="L16" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1114745.142857143</v>
       </c>
       <c r="M16" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11147.451428571429</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2764,7 +2771,9 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="19">
+        <v>45898</v>
+      </c>
       <c r="D17" s="20" t="s">
         <v>68</v>
       </c>
@@ -2772,22 +2781,27 @@
       <c r="F17" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>517861556</v>
+      </c>
       <c r="H17" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="21"/>
+      <c r="I17" s="21">
+        <f>1303152-54637.44</f>
+        <v>1248514.5600000001</v>
+      </c>
       <c r="K17" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>133769.41714285716</v>
       </c>
       <c r="L17" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1114745.142857143</v>
       </c>
       <c r="M17" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11147.451428571429</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -3168,19 +3182,19 @@
       <c r="G32"/>
       <c r="I32" s="14">
         <f>SUM(I7:I31)</f>
-        <v>11584987.540000003</v>
+        <v>14082016.660000004</v>
       </c>
       <c r="K32" s="14">
         <f>SUM(K7:K31)</f>
-        <v>1241248.6650000003</v>
+        <v>1508787.4992857145</v>
       </c>
       <c r="L32" s="14">
         <f>SUM(L7:L31)</f>
-        <v>10343738.875</v>
+        <v>12573229.160714287</v>
       </c>
       <c r="M32" s="36">
         <f>SUM(M7:M31)</f>
-        <v>103437.38874999998</v>
+        <v>125732.29160714283</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
